--- a/VT_Model_SUP_V01 (1).xlsx
+++ b/VT_Model_SUP_V01 (1).xlsx
@@ -3205,7 +3205,7 @@
   <dimension ref="B2:AK29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3507,12 +3507,10 @@
       <c r="E8" s="15">
         <v>15</v>
       </c>
-      <c r="F8" s="14">
-        <v>80</v>
-      </c>
+      <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14">
-        <v>90</v>
+        <v>400</v>
       </c>
       <c r="J8" s="88" t="s">
         <v>151</v>
@@ -4175,6 +4173,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101007B5E91D90439164FB1E7A099E16B4F92" ma:contentTypeVersion="6" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="53f028f4d2c54806023f486367284495">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed486f94-dcec-4d02-b634-b755b9f6f9c5" xmlns:ns3="58a8bd51-6561-42ef-8e0a-a55781e8d45f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="50499fff843428d68044e1161109df82" ns2:_="" ns3:_="">
     <xsd:import namespace="ed486f94-dcec-4d02-b634-b755b9f6f9c5"/>
@@ -4351,15 +4358,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
   <ds:schemaRefs>
@@ -4370,6 +4368,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79690DF5-7AE3-4700-8599-888BC4BE643F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4386,12 +4392,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/VT_Model_SUP_V01 (1).xlsx
+++ b/VT_Model_SUP_V01 (1).xlsx
@@ -3205,7 +3205,7 @@
   <dimension ref="B2:AK29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3507,11 +3507,11 @@
       <c r="E8" s="15">
         <v>15</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="F8" s="14">
+        <v>400</v>
+      </c>
       <c r="G8" s="14"/>
-      <c r="H8" s="14">
-        <v>400</v>
-      </c>
+      <c r="H8" s="14"/>
       <c r="J8" s="88" t="s">
         <v>151</v>
       </c>
@@ -4167,21 +4167,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101007B5E91D90439164FB1E7A099E16B4F92" ma:contentTypeVersion="6" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="53f028f4d2c54806023f486367284495">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed486f94-dcec-4d02-b634-b755b9f6f9c5" xmlns:ns3="58a8bd51-6561-42ef-8e0a-a55781e8d45f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="50499fff843428d68044e1161109df82" ns2:_="" ns3:_="">
     <xsd:import namespace="ed486f94-dcec-4d02-b634-b755b9f6f9c5"/>
@@ -4358,24 +4343,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79690DF5-7AE3-4700-8599-888BC4BE643F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4392,4 +4375,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>